--- a/TEST/test_cuda_queue_old/S_20/Test_NOEXCH_S20.xlsx
+++ b/TEST/test_cuda_queue_old/S_20/Test_NOEXCH_S20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\test_cuda_queue_no_exch\S_20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\test_cuda_queue_old\S_20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -202,7 +202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -302,22 +301,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>27.937788480834836</c:v>
+                  <c:v>37.080262782062263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.217370555953231</c:v>
+                  <c:v>50.909019607843135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.450383568423653</c:v>
+                  <c:v>53.97837837837838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.63469437062092</c:v>
+                  <c:v>53.955943474646709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.74884848484848</c:v>
+                  <c:v>47.991866913123836</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.784018264840181</c:v>
+                  <c:v>52.240643863179066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,22 +392,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42.037835410351413</c:v>
+                  <c:v>48.374917229506032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.475254330492163</c:v>
+                  <c:v>60.098552155314245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.639843116040026</c:v>
+                  <c:v>59.540179299103499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.005448848930662</c:v>
+                  <c:v>60.306917615981511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.866865914957209</c:v>
+                  <c:v>60.436631369953673</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.817855242150074</c:v>
+                  <c:v>56.61484810911346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,22 +483,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44.431229773462782</c:v>
+                  <c:v>46.040871048996507</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.136697332961624</c:v>
+                  <c:v>58.578000620283262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.959888837424728</c:v>
+                  <c:v>58.451103775531259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.980632008154942</c:v>
+                  <c:v>58.602233943530869</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.747779590357084</c:v>
+                  <c:v>58.038000614565199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.303361863584222</c:v>
+                  <c:v>56.594586496204549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,22 +574,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41.604787116699754</c:v>
+                  <c:v>46.228223313329693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.724210232038018</c:v>
+                  <c:v>59.626817826426887</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.547924212872665</c:v>
+                  <c:v>59.311479234717687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.365542135221439</c:v>
+                  <c:v>59.058855417021604</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51.454743878316627</c:v>
+                  <c:v>58.331574116567232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.547976413830071</c:v>
+                  <c:v>57.061503928170595</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,7 +661,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -738,7 +736,7 @@
         <c:axId val="-2004704976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
+          <c:min val="35"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -782,7 +780,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -863,7 +860,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -976,7 +972,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1076,22 +1071,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.068978305210459</c:v>
+                  <c:v>19.618570655116404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.481405383192934</c:v>
+                  <c:v>23.691075514874143</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.42148182665424</c:v>
+                  <c:v>27.734787600459242</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.833293527585386</c:v>
+                  <c:v>28.58816568047337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.686846205208104</c:v>
+                  <c:v>25.608127208480564</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.887365149021759</c:v>
+                  <c:v>18.956578603191211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,22 +1162,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.236167341430498</c:v>
+                  <c:v>23.264632900306523</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.631928406466514</c:v>
+                  <c:v>29.026771079949008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.103105987832212</c:v>
+                  <c:v>32.179689077326877</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.678676711431375</c:v>
+                  <c:v>32.362639593908632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.895839949190218</c:v>
+                  <c:v>31.2521568627451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.04097380719487</c:v>
+                  <c:v>19.740648996779786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1258,22 +1253,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.462895841281952</c:v>
+                  <c:v>24.755892799483366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.743243243243246</c:v>
+                  <c:v>30.807259576747921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.223434291581107</c:v>
+                  <c:v>34.509677419354837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.772376845681432</c:v>
+                  <c:v>35.451140567200987</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28.46965667311412</c:v>
+                  <c:v>33.735259606922845</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.949227550691987</c:v>
+                  <c:v>20.609946236559136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,22 +1344,22 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25.22734474017744</c:v>
+                  <c:v>25.574812298891672</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.604458965981163</c:v>
+                  <c:v>31.206347475188135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.177935179223006</c:v>
+                  <c:v>36.136776963879768</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.889351446099909</c:v>
+                  <c:v>37.349040595222554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.966510238907851</c:v>
+                  <c:v>34.720422278849654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.779720736004172</c:v>
+                  <c:v>20.515594751559473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,7 +1431,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1512,7 +1506,7 @@
         <c:axId val="-2004704976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1556,7 +1550,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1637,7 +1630,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2961,6 +2953,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2996,6 +3005,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3722,7 +3748,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -3781,14 +3807,14 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>1.3921399999999999</v>
+        <v>1.2981799999999999</v>
       </c>
       <c r="E4">
-        <v>4.9829999999999999E-2</v>
+        <v>3.5009999999999999E-2</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F9" si="0">D4/E4</f>
-        <v>27.937788480834836</v>
+        <v>37.080262782062263</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3802,14 +3828,14 @@
         <v>64</v>
       </c>
       <c r="D5">
-        <v>1.3921399999999999</v>
+        <v>1.2981799999999999</v>
       </c>
       <c r="E5">
-        <v>4.1910000000000003E-2</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>33.217370555953231</v>
+        <v>50.909019607843135</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -3823,14 +3849,14 @@
         <v>128</v>
       </c>
       <c r="D6">
-        <v>1.3921399999999999</v>
+        <v>1.2981799999999999</v>
       </c>
       <c r="E6">
-        <v>4.0410000000000001E-2</v>
+        <v>2.4049999999999998E-2</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>34.450383568423653</v>
+        <v>53.97837837837838</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3844,14 +3870,14 @@
         <v>256</v>
       </c>
       <c r="D7">
-        <v>1.3921399999999999</v>
+        <v>1.2981799999999999</v>
       </c>
       <c r="E7">
-        <v>4.1390000000000003E-2</v>
+        <v>2.4060000000000002E-2</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>33.63469437062092</v>
+        <v>53.955943474646709</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>7</v>
@@ -3868,14 +3894,14 @@
         <v>512</v>
       </c>
       <c r="D8">
-        <v>1.3921399999999999</v>
+        <v>1.2981799999999999</v>
       </c>
       <c r="E8">
-        <v>4.1250000000000002E-2</v>
+        <v>2.7050000000000001E-2</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>33.74884848484848</v>
+        <v>47.991866913123836</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3889,14 +3915,14 @@
         <v>1024</v>
       </c>
       <c r="D9">
-        <v>1.3921399999999999</v>
+        <v>1.2981799999999999</v>
       </c>
       <c r="E9">
-        <v>4.3799999999999999E-2</v>
+        <v>2.4850000000000001E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>31.784018264840181</v>
+        <v>52.240643863179066</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3913,14 +3939,14 @@
         <v>32</v>
       </c>
       <c r="D11">
-        <v>3.74431</v>
+        <v>3.65279</v>
       </c>
       <c r="E11">
-        <v>8.9069999999999996E-2</v>
+        <v>7.5509999999999994E-2</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ref="F11:F16" si="1">D11/E11</f>
-        <v>42.037835410351413</v>
+        <v>48.374917229506032</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3934,14 +3960,14 @@
         <v>64</v>
       </c>
       <c r="D12">
-        <v>3.74431</v>
+        <v>3.65279</v>
       </c>
       <c r="E12">
-        <v>7.2739999999999999E-2</v>
+        <v>6.0780000000000001E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>51.475254330492163</v>
+        <v>60.098552155314245</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3955,14 +3981,14 @@
         <v>128</v>
       </c>
       <c r="D13">
-        <v>3.74431</v>
+        <v>3.65279</v>
       </c>
       <c r="E13">
-        <v>7.3940000000000006E-2</v>
+        <v>6.1350000000000002E-2</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="1"/>
-        <v>50.639843116040026</v>
+        <v>59.540179299103499</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3976,14 +4002,14 @@
         <v>256</v>
       </c>
       <c r="D14">
-        <v>3.74431</v>
+        <v>3.65279</v>
       </c>
       <c r="E14">
-        <v>7.3410000000000003E-2</v>
+        <v>6.0569999999999999E-2</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="1"/>
-        <v>51.005448848930662</v>
+        <v>60.306917615981511</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>7</v>
@@ -4000,14 +4026,14 @@
         <v>512</v>
       </c>
       <c r="D15">
-        <v>3.74431</v>
+        <v>3.65279</v>
       </c>
       <c r="E15">
-        <v>7.3609999999999995E-2</v>
+        <v>6.0440000000000001E-2</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="1"/>
-        <v>50.866865914957209</v>
+        <v>60.436631369953673</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4021,14 +4047,14 @@
         <v>1024</v>
       </c>
       <c r="D16">
-        <v>3.74431</v>
+        <v>3.65279</v>
       </c>
       <c r="E16">
-        <v>7.5160000000000005E-2</v>
+        <v>6.4519999999999994E-2</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="1"/>
-        <v>49.817855242150074</v>
+        <v>56.61484810911346</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4045,14 +4071,14 @@
         <v>32</v>
       </c>
       <c r="D18">
-        <v>6.04087</v>
+        <v>5.6662499999999998</v>
       </c>
       <c r="E18">
-        <v>0.13596</v>
+        <v>0.12307</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ref="F18:F23" si="2">D18/E18</f>
-        <v>44.431229773462782</v>
+        <v>46.040871048996507</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4066,14 +4092,14 @@
         <v>64</v>
       </c>
       <c r="D19">
-        <v>6.04087</v>
+        <v>5.6662499999999998</v>
       </c>
       <c r="E19">
-        <v>0.10761</v>
+        <v>9.6729999999999997E-2</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>56.136697332961624</v>
+        <v>58.578000620283262</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4087,14 +4113,14 @@
         <v>128</v>
       </c>
       <c r="D20">
-        <v>6.04087</v>
+        <v>5.6662499999999998</v>
       </c>
       <c r="E20">
-        <v>0.10795</v>
+        <v>9.6939999999999998E-2</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>55.959888837424728</v>
+        <v>58.451103775531259</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4108,14 +4134,14 @@
         <v>256</v>
       </c>
       <c r="D21">
-        <v>6.04087</v>
+        <v>5.6662499999999998</v>
       </c>
       <c r="E21">
-        <v>0.10791000000000001</v>
+        <v>9.6689999999999998E-2</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>55.980632008154942</v>
+        <v>58.602233943530869</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>7</v>
@@ -4132,14 +4158,14 @@
         <v>512</v>
       </c>
       <c r="D22">
-        <v>6.04087</v>
+        <v>5.6662499999999998</v>
       </c>
       <c r="E22">
-        <v>0.11033999999999999</v>
+        <v>9.7629999999999995E-2</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>54.747779590357084</v>
+        <v>58.038000614565199</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4153,14 +4179,14 @@
         <v>1024</v>
       </c>
       <c r="D23">
-        <v>6.04087</v>
+        <v>5.6662499999999998</v>
       </c>
       <c r="E23">
-        <v>0.11333</v>
+        <v>0.10012</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>53.303361863584222</v>
+        <v>56.594586496204549</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4177,14 +4203,14 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <v>7.5437799999999999</v>
+        <v>7.6262699999999999</v>
       </c>
       <c r="E25">
-        <v>0.18132000000000001</v>
+        <v>0.16497000000000001</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ref="F25:F29" si="3">D25/E25</f>
-        <v>41.604787116699754</v>
+        <v>46.228223313329693</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4198,14 +4224,14 @@
         <v>64</v>
       </c>
       <c r="D26">
-        <v>7.5437799999999999</v>
+        <v>7.6262699999999999</v>
       </c>
       <c r="E26">
-        <v>0.14308000000000001</v>
+        <v>0.12790000000000001</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="3"/>
-        <v>52.724210232038018</v>
+        <v>59.626817826426887</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4219,14 +4245,14 @@
         <v>128</v>
       </c>
       <c r="D27">
-        <v>7.5437799999999999</v>
+        <v>7.6262699999999999</v>
       </c>
       <c r="E27">
-        <v>0.14355999999999999</v>
+        <v>0.12858</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="3"/>
-        <v>52.547924212872665</v>
+        <v>59.311479234717687</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4240,14 +4266,14 @@
         <v>256</v>
       </c>
       <c r="D28">
-        <v>7.5437799999999999</v>
+        <v>7.6262699999999999</v>
       </c>
       <c r="E28">
-        <v>0.14405999999999999</v>
+        <v>0.12912999999999999</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="3"/>
-        <v>52.365542135221439</v>
+        <v>59.058855417021604</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>7</v>
@@ -4264,14 +4290,14 @@
         <v>512</v>
       </c>
       <c r="D29">
-        <v>7.5437799999999999</v>
+        <v>7.6262699999999999</v>
       </c>
       <c r="E29">
-        <v>0.14660999999999999</v>
+        <v>0.13074</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>51.454743878316627</v>
+        <v>58.331574116567232</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4285,14 +4311,14 @@
         <v>1024</v>
       </c>
       <c r="D30">
-        <v>7.5437799999999999</v>
+        <v>7.6262699999999999</v>
       </c>
       <c r="E30">
-        <v>0.14924000000000001</v>
+        <v>0.13364999999999999</v>
       </c>
       <c r="F30" s="2">
         <f>D30/E30</f>
-        <v>50.547976413830071</v>
+        <v>57.061503928170595</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4347,14 +4373,14 @@
         <v>32</v>
       </c>
       <c r="D35">
-        <v>0.70481000000000005</v>
+        <v>0.72470999999999997</v>
       </c>
       <c r="E35">
-        <v>5.3929999999999999E-2</v>
+        <v>3.6940000000000001E-2</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ref="F35:F40" si="4">D35/E35</f>
-        <v>13.068978305210459</v>
+        <v>19.618570655116404</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4368,14 +4394,14 @@
         <v>64</v>
       </c>
       <c r="D36">
-        <v>0.70481000000000005</v>
+        <v>0.72470999999999997</v>
       </c>
       <c r="E36">
-        <v>4.8669999999999998E-2</v>
+        <v>3.0589999999999999E-2</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="4"/>
-        <v>14.481405383192934</v>
+        <v>23.691075514874143</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4389,14 +4415,14 @@
         <v>128</v>
       </c>
       <c r="D37">
-        <v>0.70481000000000005</v>
+        <v>0.72470999999999997</v>
       </c>
       <c r="E37">
-        <v>4.292E-2</v>
+        <v>2.613E-2</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="4"/>
-        <v>16.42148182665424</v>
+        <v>27.734787600459242</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4410,14 +4436,14 @@
         <v>256</v>
       </c>
       <c r="D38">
-        <v>0.70481000000000005</v>
+        <v>0.72470999999999997</v>
       </c>
       <c r="E38">
-        <v>4.1869999999999997E-2</v>
+        <v>2.5350000000000001E-2</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="4"/>
-        <v>16.833293527585386</v>
+        <v>28.58816568047337</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>7</v>
@@ -4434,14 +4460,14 @@
         <v>512</v>
       </c>
       <c r="D39">
-        <v>0.70481000000000005</v>
+        <v>0.72470999999999997</v>
       </c>
       <c r="E39">
-        <v>4.4929999999999998E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="4"/>
-        <v>15.686846205208104</v>
+        <v>25.608127208480564</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4455,14 +4481,14 @@
         <v>1024</v>
       </c>
       <c r="D40">
-        <v>0.70481000000000005</v>
+        <v>0.72470999999999997</v>
       </c>
       <c r="E40">
-        <v>5.4690000000000003E-2</v>
+        <v>3.823E-2</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="4"/>
-        <v>12.887365149021759</v>
+        <v>18.956578603191211</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4479,14 +4505,14 @@
         <v>32</v>
       </c>
       <c r="D42">
-        <v>1.5679399999999999</v>
+        <v>1.5938600000000001</v>
       </c>
       <c r="E42">
-        <v>8.1509999999999999E-2</v>
+        <v>6.8510000000000001E-2</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" ref="F42:F47" si="5">D42/E42</f>
-        <v>19.236167341430498</v>
+        <v>23.264632900306523</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4500,14 +4526,14 @@
         <v>64</v>
       </c>
       <c r="D43">
-        <v>1.5679399999999999</v>
+        <v>1.5938600000000001</v>
       </c>
       <c r="E43">
-        <v>6.9279999999999994E-2</v>
+        <v>5.491E-2</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="5"/>
-        <v>22.631928406466514</v>
+        <v>29.026771079949008</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4521,14 +4547,14 @@
         <v>128</v>
       </c>
       <c r="D44">
-        <v>1.5679399999999999</v>
+        <v>1.5938600000000001</v>
       </c>
       <c r="E44">
-        <v>6.2460000000000002E-2</v>
+        <v>4.9529999999999998E-2</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="5"/>
-        <v>25.103105987832212</v>
+        <v>32.179689077326877</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4542,14 +4568,14 @@
         <v>256</v>
       </c>
       <c r="D45">
-        <v>1.5679399999999999</v>
+        <v>1.5938600000000001</v>
       </c>
       <c r="E45">
-        <v>6.1060000000000003E-2</v>
+        <v>4.9250000000000002E-2</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="5"/>
-        <v>25.678676711431375</v>
+        <v>32.362639593908632</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>7</v>
@@ -4566,14 +4592,14 @@
         <v>512</v>
       </c>
       <c r="D46">
-        <v>1.5679399999999999</v>
+        <v>1.5938600000000001</v>
       </c>
       <c r="E46">
-        <v>6.2979999999999994E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="5"/>
-        <v>24.895839949190218</v>
+        <v>31.2521568627451</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4587,14 +4613,14 @@
         <v>1024</v>
       </c>
       <c r="D47">
-        <v>1.5679399999999999</v>
+        <v>1.5938600000000001</v>
       </c>
       <c r="E47">
-        <v>9.2009999999999995E-2</v>
+        <v>8.0740000000000006E-2</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="5"/>
-        <v>17.04097380719487</v>
+        <v>19.740648996779786</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4611,14 +4637,14 @@
         <v>32</v>
       </c>
       <c r="D49">
-        <v>2.35501</v>
+        <v>2.3000699999999998</v>
       </c>
       <c r="E49">
-        <v>0.10484</v>
+        <v>9.2910000000000006E-2</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" ref="F49:F54" si="6">D49/E49</f>
-        <v>22.462895841281952</v>
+        <v>24.755892799483366</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4632,14 +4658,14 @@
         <v>64</v>
       </c>
       <c r="D50">
-        <v>2.35501</v>
+        <v>2.3000699999999998</v>
       </c>
       <c r="E50">
-        <v>8.8059999999999999E-2</v>
+        <v>7.4660000000000004E-2</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="6"/>
-        <v>26.743243243243246</v>
+        <v>30.807259576747921</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4653,14 +4679,14 @@
         <v>128</v>
       </c>
       <c r="D51">
-        <v>2.35501</v>
+        <v>2.3000699999999998</v>
       </c>
       <c r="E51">
-        <v>7.7920000000000003E-2</v>
+        <v>6.6650000000000001E-2</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="6"/>
-        <v>30.223434291581107</v>
+        <v>34.509677419354837</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4674,14 +4700,14 @@
         <v>256</v>
       </c>
       <c r="D52">
-        <v>2.35501</v>
+        <v>2.3000699999999998</v>
       </c>
       <c r="E52">
-        <v>7.6530000000000001E-2</v>
+        <v>6.4879999999999993E-2</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="6"/>
-        <v>30.772376845681432</v>
+        <v>35.451140567200987</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>7</v>
@@ -4698,14 +4724,14 @@
         <v>512</v>
       </c>
       <c r="D53">
-        <v>2.35501</v>
+        <v>2.3000699999999998</v>
       </c>
       <c r="E53">
-        <v>8.2720000000000002E-2</v>
+        <v>6.8180000000000004E-2</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="6"/>
-        <v>28.46965667311412</v>
+        <v>33.735259606922845</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4719,14 +4745,14 @@
         <v>1024</v>
       </c>
       <c r="D54">
-        <v>2.35501</v>
+        <v>2.3000699999999998</v>
       </c>
       <c r="E54">
-        <v>0.12428</v>
+        <v>0.1116</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="6"/>
-        <v>18.949227550691987</v>
+        <v>20.609946236559136</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4743,14 +4769,14 @@
         <v>32</v>
       </c>
       <c r="D56">
-        <v>3.1846999999999999</v>
+        <v>2.86131</v>
       </c>
       <c r="E56">
-        <v>0.12623999999999999</v>
+        <v>0.11187999999999999</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" ref="F56:F61" si="7">D56/E56</f>
-        <v>25.22734474017744</v>
+        <v>25.574812298891672</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4764,14 +4790,14 @@
         <v>64</v>
       </c>
       <c r="D57">
-        <v>3.1846999999999999</v>
+        <v>2.86131</v>
       </c>
       <c r="E57">
-        <v>0.10406</v>
+        <v>9.1689999999999994E-2</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="7"/>
-        <v>30.604458965981163</v>
+        <v>31.206347475188135</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4785,14 +4811,14 @@
         <v>128</v>
       </c>
       <c r="D58">
-        <v>3.1846999999999999</v>
+        <v>2.86131</v>
       </c>
       <c r="E58">
-        <v>9.3179999999999999E-2</v>
+        <v>7.918E-2</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="7"/>
-        <v>34.177935179223006</v>
+        <v>36.136776963879768</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4806,14 +4832,14 @@
         <v>256</v>
       </c>
       <c r="D59">
-        <v>3.1846999999999999</v>
+        <v>2.86131</v>
       </c>
       <c r="E59">
-        <v>9.128E-2</v>
+        <v>7.6609999999999998E-2</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="7"/>
-        <v>34.889351446099909</v>
+        <v>37.349040595222554</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>7</v>
@@ -4830,14 +4856,14 @@
         <v>512</v>
       </c>
       <c r="D60">
-        <v>3.1846999999999999</v>
+        <v>2.86131</v>
       </c>
       <c r="E60">
-        <v>9.3759999999999996E-2</v>
+        <v>8.2409999999999997E-2</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="7"/>
-        <v>33.966510238907851</v>
+        <v>34.720422278849654</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4851,14 +4877,14 @@
         <v>1024</v>
       </c>
       <c r="D61">
-        <v>3.1846999999999999</v>
+        <v>2.86131</v>
       </c>
       <c r="E61">
-        <v>0.15326000000000001</v>
+        <v>0.13947000000000001</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="7"/>
-        <v>20.779720736004172</v>
+        <v>20.515594751559473</v>
       </c>
     </row>
   </sheetData>
